--- a/biology/Botanique/Androsace_vitaliana/Androsace_vitaliana.xlsx
+++ b/biology/Botanique/Androsace_vitaliana/Androsace_vitaliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androsace vitaliana, en français l'Androsace de Vital ou Androsace de Vitaliano, grégorie jaune, ou primevère dorée, est une espèce de plantes à fleurs de la famille des Primulacées originaire des Alpes et des Pyrénées.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est décrite en 1753 par Carl von Linné sous le nom de Primula vitaliana. Lapeyrouse la renomme Androsace vitaliana en 1813. 
 Synonymes
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace haute de 4 à 6 cm. Elle peut être solitaire, mais forme généralement des coussins denses.
 Les fleurs jaunes, à 5 pétales et 5 étamines, sont souvent solitaires au bout d'un court pédoncule (floraison de mai à juillet).
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est trouvée en haute montagne en Europe, en Espagne, France, Italie, Suisse et dans une petite partie de l'Autriche.
 </t>
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse dans les pierrailles calcaires, les pelouses rases, de 1 500 à 3 000 m.
 </t>
@@ -638,7 +658,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En Espagne, l'espèce figure sur la liste rouge des plantes.
 </t>
